--- a/SSDoutput.xlsx
+++ b/SSDoutput.xlsx
@@ -8,12 +8,15 @@
   <sheets>
     <sheet name="Data Listing" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Group Analysis" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Normal Leave Out" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Logistic Leave Out" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="AddOneIn" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t xml:space="preserve">O. mykiss</t>
   </si>
@@ -214,6 +217,132 @@
   </si>
   <si>
     <t xml:space="preserve">amphib / fish == 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leave One Out Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species.Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">responses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HCx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddOne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddOneIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add One In Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targetValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addOneValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addOneProb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneIn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oneInFormated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 15,400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,700,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 4,700,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,990,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 4,990,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HC5/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.24e+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 4.24e+13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 12,200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,790,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 3,790,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65e+10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 1.65e+10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14e+16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 / 1.14e+16</t>
   </si>
 </sst>
 </file>
@@ -11369,4 +11498,1440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.221322479899929</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0777446682599577</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.425134341129267</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.272163858498721</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.082344523124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.266214218365437</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0944874780653882</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.503162304336547</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.368932737863035</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.0288980564825</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.263772215669776</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0932289908274941</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.499833210495882</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.366568314839769</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.03306315814892</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.26149911770578</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0920649647520182</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.496717796374797</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.36430042625531</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.03694624723137</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.245112330769618</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0838989010400489</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.473721331538077</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.345607524220798</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.06492527729851</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.226609131433263</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0752516944430252</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.446188525303915</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.316597002975448</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.09500663589535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.217024672550755</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0711483329415137</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.430706578994868</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.294385926832532</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.10777647961533</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.215395996007792</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.070497845306199</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.427908514882299</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.289551961444219</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.10941729684178</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.214685070261021</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0702205320035153</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.426662760656875</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.287284072859761</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.11004843053103</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.211381396434595</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0690084115590663</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.420589014330863</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.27488720889786</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.11193992588539</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.210464731064557</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0687061943374951</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.418776194371912</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.270611595501408</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.1119827040025</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.20855229988747</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0681801185948909</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.414603327299414</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.259127539394847</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.1105504707976</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.207781634771498</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0680618434468651</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.412572460532985</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.252213418590769</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.10859773312534</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.207094315850439</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0682637485602825</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.40962481022888</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.238646920784544</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.10236427632955</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.207115183872384</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0684787547933614</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.408900414502448</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.233774388539038</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.0993407288992</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.207187931865802</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0686304508525927</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.408576312651973</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.231084022210956</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.09749159853248</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.208210556484726</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0697469491229571</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.407772922652215</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.217686130165573</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.08635292611843</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.208838371328619</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0702888294826136</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.407815617476096</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.212971340129838</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.08165613043258</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.209263190508566</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0706362568905563</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.407917879400475</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.210267719464211</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.07877699566145</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.243432220890411</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0942960815117839</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.436031046529328</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.136615060505775</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.942048437597149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.212698444439201</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0647758147484473</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.452116550610071</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.292705199119186</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.625105523445368</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.26273895647902</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0821079787933418</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.540164660849192</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.385898373655129</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.584998597857914</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.261059726833435</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0811877745888691</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.538118571395653</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.384990049045832</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.586867692171263</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.259453473311286</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0803070886144875</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.536152061041045</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.384617888661929</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.588837393805355</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.245803611192925</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0732368156232234</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.519089179543161</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.376498613133841</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.604434670269641</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.223896603037997</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0636267963354338</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4893538650145</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.353480199140689</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.628320416726385</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.20895474388014</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0582872311232618</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.464993416527238</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.325852946720012</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.642394203794597</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.206184286964932</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0574257063306878</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.459853588964285</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.318856180797218</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.644551001876504</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.205062092541104</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0570608886681122</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.457496716358956</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.31581326832515</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.64537106628186</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.199404877112582</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0555273280693527</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.44558658648026</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.296498120853311</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.648312326108216</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.197987790431431</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0551788330577432</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.441987809042705</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.290000540995462</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.648527773604161</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.195132995399922</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0546970513392433</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.43399372319701</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.272473949062305</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.647508027082196</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.194264602916764</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0547167463622721</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.430529178931837</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.26219504351223</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.645531856367283</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.194523978640425</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0553833613138121</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.426921623254395</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.244818191122361</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.63917712150355</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.195067632908999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0558124882128888</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.426642409070233</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.239302911401068</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.636356151300728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.195465900266307</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0560893789210315</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.426706964273655</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.236290462981828</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.634640355654881</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.198678267203972</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0578496847885467</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.429136888971428</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.224151660997275</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.624981595591285</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.200114847895148</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0586065030866151</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.430687200290106</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.22067789278795</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.621354948600986</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.200952563071018</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0590695888060749</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.431709057307505</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.218742279616628</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.619278815392931</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.23470805104461</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.076649295310196</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.475616154769492</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.204401466120627</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.561673837012664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.106349222219601</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.003233</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00006498</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0708994814797338</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.00009049</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.000000213</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0425396888878403</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.00000116</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0000000002003</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0212698444439201</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.000000004058</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.00000000000002356</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.110661239949965</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.02219</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00008173</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0737741599666431</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.00576</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0000002638</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0442644959799858</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.001237</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00000000006075</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0221322479899929</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0001761</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.00000000000000008749</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>